--- a/goods.xlsx
+++ b/goods.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -21,25 +21,25 @@
     <t>mouse</t>
   </si>
   <si>
+    <t>monitor</t>
+  </si>
+  <si>
     <t>keyboard</t>
   </si>
   <si>
+    <t>speakers</t>
+  </si>
+  <si>
     <t>ram</t>
   </si>
   <si>
+    <t>клавиатура</t>
+  </si>
+  <si>
     <t>harddisk</t>
   </si>
   <si>
     <t>motherboard</t>
-  </si>
-  <si>
-    <t>monitor</t>
-  </si>
-  <si>
-    <t>speakers</t>
-  </si>
-  <si>
-    <t>клавиатура</t>
   </si>
 </sst>
 </file>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,38 +389,44 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
